--- a/biology/Botanique/Armoise/Armoise.xlsx
+++ b/biology/Botanique/Armoise/Armoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia
 Le genre Artemisia (les armoises) regroupe des plantes herbacées, des arbrisseaux et des arbustes, généralement aromatiques, densément tomenteux, pubescents ou glabres, de la famille des Astéracées. Leurs feuilles sont pennées (rarement palmées). L’armoise a notamment des propriétés diurétiques et l’artémisinine que l'on extrait de certaines espèces, en particulier d’Artemisia annua, a plusieurs applications en médecine.
@@ -513,10 +525,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces étaient utilisées depuis l'Antiquité et sont encore utilisées pour diverses propriétés thérapeutiques (l'armoise commune était autrefois dite « la mère des herbes » ou « la mère des simples » ; « Si tu connaissais les vertus de l'artémise, tu la porterais dedans ta chemise », disait-on)[1], notamment Artemisia annua et Artemisia afra pour la lutte contre le paludisme. Il est important de noter que cette utilisation n'est cependant pas prouvée comme efficace et n'est donc pas recommandée[2]. Certaines espèces aromatisent des alcools ou sont utilisées comme condiment[1].
-En Europe, les espèces les plus utilisées pour l'alimentation et/ou les médecines traditionnelles sont l'absinthe, l'aurone (ou arquebuse), les génépis (armoises des montagnes), l'estragon, l'armoise annuelle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces étaient utilisées depuis l'Antiquité et sont encore utilisées pour diverses propriétés thérapeutiques (l'armoise commune était autrefois dite « la mère des herbes » ou « la mère des simples » ; « Si tu connaissais les vertus de l'artémise, tu la porterais dedans ta chemise », disait-on), notamment Artemisia annua et Artemisia afra pour la lutte contre le paludisme. Il est important de noter que cette utilisation n'est cependant pas prouvée comme efficace et n'est donc pas recommandée. Certaines espèces aromatisent des alcools ou sont utilisées comme condiment.
+En Europe, les espèces les plus utilisées pour l'alimentation et/ou les médecines traditionnelles sont l'absinthe, l'aurone (ou arquebuse), les génépis (armoises des montagnes), l'estragon, l'armoise annuelle.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Artemisia abaensis
@@ -607,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (17 janvier 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 janvier 2018) :
 Artemisia abaensis Y.R. Ling &amp; S.Y. Zhao
 Artemisia abolinii Lazkov
 Artemisia abrotanum L.
@@ -1003,9 +1021,11 @@
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le septième jour du mois de thermidor du calendrier républicain / révolutionnaire français est dénommé jour de l'armoise[4], généralement chaque 25 juillet du calendrier grégorien.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le septième jour du mois de thermidor du calendrier républicain / révolutionnaire français est dénommé jour de l'armoise, généralement chaque 25 juillet du calendrier grégorien.
 </t>
         </is>
       </c>
@@ -1034,9 +1054,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, l'armoise symbolise la fidélité conjugale et le bonheur[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'armoise symbolise la fidélité conjugale et le bonheur.
 </t>
         </is>
       </c>
